--- a/public/group_gi.xlsx
+++ b/public/group_gi.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="540" windowWidth="16020" windowHeight="13540" activeTab="1"/>
+    <workbookView xWindow="220" yWindow="540" windowWidth="16020" windowHeight="13540"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
     <sheet name="査証人名簿" sheetId="2" r:id="rId2"/>
     <sheet name="滞在予定表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="22"/>
   </si>
   <si>
-    <t>1501-001</t>
-    <phoneticPr fontId="22"/>
-  </si>
-  <si>
     <t>関　理江</t>
     <phoneticPr fontId="22"/>
   </si>
@@ -197,12 +193,16 @@
 電話：029-350-2242</t>
     <phoneticPr fontId="22"/>
   </si>
+  <si>
+    <t>1510-001</t>
+    <phoneticPr fontId="22"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -534,7 +534,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF969696"/>
@@ -996,14 +996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G986"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1196,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1209,7 +1209,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1235,7 +1235,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1248,7 +1248,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1261,7 +1261,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1274,7 +1274,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8017,7 +8017,7 @@
   <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -8025,14 +8025,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
@@ -8708,7 +8708,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
@@ -14579,7 +14579,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -14587,14 +14587,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
@@ -14925,7 +14925,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
@@ -19755,7 +19755,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
